--- a/output/1Y_P57_1VAL-D.xlsx
+++ b/output/1Y_P57_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>656.9525</v>
       </c>
-      <c r="G2" s="1">
-        <v>656.9525</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1664</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2218</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1664</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E3" s="1">
+        <v>656.9525</v>
+      </c>
       <c r="F3" s="1">
         <v>710.722</v>
       </c>
-      <c r="G3" s="1">
-        <v>1367.6745</v>
-      </c>
       <c r="H3" s="1">
-        <v>19143.75</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6234</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2218</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19143.75</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0403</v>
+        <v>-0.0804</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E4" s="1">
+        <v>1367.6745</v>
+      </c>
       <c r="F4" s="1">
         <v>722.1468</v>
       </c>
-      <c r="G4" s="1">
-        <v>2089.8213</v>
-      </c>
       <c r="H4" s="1">
-        <v>28788.96</v>
+        <v>18840.8101</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3553</v>
+        <v>18840.8101</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6234</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28788.96</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0122</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E5" s="1">
+        <v>2089.8213</v>
+      </c>
       <c r="F5" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G5" s="1">
-        <v>2773.886</v>
-      </c>
       <c r="H5" s="1">
-        <v>40339.7918</v>
+        <v>30391.6439</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4202</v>
+        <v>30391.6439</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.3553</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40339.7918</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.04</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E6" s="1">
+        <v>2773.886</v>
+      </c>
       <c r="F6" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G6" s="1">
-        <v>3430.2133</v>
-      </c>
       <c r="H6" s="1">
-        <v>51992.7723</v>
+        <v>42044.6221</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.5764</v>
+        <v>42044.6221</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.4202</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51992.7723</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0328</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E7" s="1">
+        <v>3430.2133</v>
+      </c>
       <c r="F7" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G7" s="1">
-        <v>4058.7607</v>
-      </c>
       <c r="H7" s="1">
-        <v>64238.817</v>
+        <v>54290.6722</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7828</v>
+        <v>54290.6722</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.5764</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64238.817</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0362</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E8" s="1">
+        <v>4058.7607</v>
+      </c>
       <c r="F8" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G8" s="1">
-        <v>4708.4953</v>
-      </c>
       <c r="H8" s="1">
-        <v>72092.2418</v>
+        <v>62144.0906</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8667</v>
+        <v>62144.0906</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.7828</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72092.2418</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0289</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E9" s="1">
+        <v>4708.4953</v>
+      </c>
       <c r="F9" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G9" s="1">
-        <v>5329.247</v>
-      </c>
       <c r="H9" s="1">
-        <v>85406.5123</v>
+        <v>75458.34510000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0115</v>
+        <v>75458.34510000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.8667</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85406.5123</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0404</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E10" s="1">
+        <v>5329.247</v>
+      </c>
       <c r="F10" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G10" s="1">
-        <v>5949.5097</v>
-      </c>
       <c r="H10" s="1">
-        <v>95421.80680000001</v>
+        <v>85473.6608</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1273</v>
+        <v>85473.6608</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15.0115</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.2</v>
       </c>
-      <c r="L10" s="1">
-        <v>959.2645</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-9040.735500000001</v>
+        <v>847.5291</v>
       </c>
       <c r="O10" s="1">
-        <v>959.2645</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96381.0713</v>
+        <v>-9152.4709</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0102</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E11" s="1">
+        <v>5949.5097</v>
+      </c>
       <c r="F11" s="1">
-        <v>594.9597</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6544.4695</v>
+        <v>592.8124</v>
       </c>
       <c r="H11" s="1">
-        <v>112926.7838</v>
+        <v>102660.5753</v>
       </c>
       <c r="I11" s="1">
-        <v>100319.7548</v>
+        <v>847.5291</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3289</v>
+        <v>103508.1045</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90282.5097</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.1748</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10319.7548</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>639.5096</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>113566.2934</v>
+        <v>-10282.5097</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0675</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E12" s="1">
+        <v>6542.3222</v>
+      </c>
       <c r="F12" s="1">
-        <v>577.2676</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7121.737</v>
+        <v>575.1842</v>
       </c>
       <c r="H12" s="1">
-        <v>126654.3958</v>
+        <v>116349.9661</v>
       </c>
       <c r="I12" s="1">
-        <v>110639.5096</v>
+        <v>565.0194</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5355</v>
+        <v>116914.9856</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100565.0194</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3715</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10319.7548</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>319.7548</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>126974.1506</v>
+        <v>-10282.5097</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0276</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,38 +1276,38 @@
       <c r="D13" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E13" s="1">
+        <v>7117.5063</v>
+      </c>
       <c r="F13" s="1">
-        <v>577.2578999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7698.9949</v>
+        <v>575.1745</v>
       </c>
       <c r="H13" s="1">
-        <v>136922.7753</v>
+        <v>126581.2915</v>
       </c>
       <c r="I13" s="1">
-        <v>120959.2645</v>
+        <v>282.5097</v>
       </c>
       <c r="J13" s="1">
-        <v>15.711</v>
+        <v>126863.8012</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110847.5291</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.5739</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10319.7548</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>136922.7753</v>
+        <v>-10282.5097</v>
       </c>
       <c r="Q13" s="3">
         <v>-0.0004</v>
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E14" s="1">
+        <v>7692.6808</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7698.9949</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7117.5063</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139184.4439</v>
       </c>
       <c r="I14" s="1">
-        <v>120959.2645</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.711</v>
+        <v>139184.4439</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110847.5291</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.4095</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>139298.6852</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>139298.6852</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>139298.6852</v>
+        <v>128777.754</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0519</v>
+        <v>0.017</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.2218</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.9525</v>
       </c>
       <c r="G2" s="1">
-        <v>656.9525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1664</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2218</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1664</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.0702</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>656.9525</v>
       </c>
       <c r="F3" s="1">
         <v>710.722</v>
       </c>
       <c r="G3" s="1">
-        <v>1367.6745</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19143.75</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6234</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2218</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19143.75</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0403</v>
+        <v>-0.0804</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.8476</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1367.6745</v>
       </c>
       <c r="F4" s="1">
         <v>722.1468</v>
       </c>
       <c r="G4" s="1">
-        <v>2089.8213</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28788.96</v>
+        <v>18840.8101</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3553</v>
+        <v>18840.8101</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6234</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28788.96</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0122</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.6185</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2089.8213</v>
       </c>
       <c r="F5" s="1">
         <v>660.6996</v>
       </c>
       <c r="G5" s="1">
-        <v>2750.5209</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30391.6439</v>
       </c>
       <c r="I5" s="1">
-        <v>39658.4371</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4185</v>
+        <v>30391.6439</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29658.4371</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1919</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9658.437099999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>341.5629</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40341.5629</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.04</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.2363</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2750.5209</v>
       </c>
       <c r="F6" s="1">
         <v>548.2197</v>
       </c>
       <c r="G6" s="1">
-        <v>3298.7405</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41690.4701</v>
       </c>
       <c r="I6" s="1">
-        <v>48011.2764</v>
+        <v>341.5629</v>
       </c>
       <c r="J6" s="1">
-        <v>14.5544</v>
+        <v>42032.033</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38011.2764</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8197</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8352.8392</v>
       </c>
-      <c r="O6" s="1">
-        <v>1988.7236</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51988.7236</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0327</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.9097</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3298.7405</v>
       </c>
       <c r="F7" s="1">
         <v>492.2016</v>
       </c>
       <c r="G7" s="1">
-        <v>3790.9422</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52209.8263</v>
       </c>
       <c r="I7" s="1">
-        <v>55842.0567</v>
+        <v>1988.7236</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7304</v>
+        <v>54198.5499</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45842.0567</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.8968</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7830.7803</v>
       </c>
-      <c r="O7" s="1">
-        <v>4157.9433</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64157.9433</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.035</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.3909</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3790.9422</v>
       </c>
       <c r="F8" s="1">
         <v>780.9044</v>
       </c>
       <c r="G8" s="1">
-        <v>4571.8466</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58043.4947</v>
       </c>
       <c r="I8" s="1">
-        <v>67860.8781</v>
+        <v>4157.9433</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8432</v>
+        <v>62201.438</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57860.8781</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.2629</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12018.8214</v>
       </c>
-      <c r="O8" s="1">
-        <v>2139.1219</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72139.1219</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0311</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.1095</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4571.8466</v>
       </c>
       <c r="F9" s="1">
         <v>420.0416</v>
       </c>
       <c r="G9" s="1">
-        <v>4991.8882</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>73268.41310000001</v>
       </c>
       <c r="I9" s="1">
-        <v>74627.5385</v>
+        <v>2139.1219</v>
       </c>
       <c r="J9" s="1">
-        <v>14.9498</v>
+        <v>75407.535</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64627.5385</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.136</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6766.6604</v>
       </c>
-      <c r="O9" s="1">
-        <v>5372.4615</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85372.4615</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0394</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.1222</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4991.8882</v>
       </c>
       <c r="F10" s="1">
         <v>619.5742</v>
       </c>
       <c r="G10" s="1">
-        <v>5611.4623</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80062.89780000001</v>
       </c>
       <c r="I10" s="1">
-        <v>84616.4371</v>
+        <v>5372.4615</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0792</v>
+        <v>85435.3593</v>
       </c>
       <c r="K10" s="1">
+        <v>74616.4371</v>
+      </c>
+      <c r="L10" s="1">
+        <v>14.9475</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.2</v>
       </c>
-      <c r="L10" s="1">
-        <v>898.5399</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-9090.358700000001</v>
+        <v>822.9324</v>
       </c>
       <c r="O10" s="1">
-        <v>6282.1028</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96282.10279999999</v>
+        <v>-9165.966200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0095</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.3453</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5611.4623</v>
       </c>
       <c r="F11" s="1">
         <v>183.8585</v>
       </c>
       <c r="G11" s="1">
-        <v>5795.3209</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>96827.4662</v>
       </c>
       <c r="I11" s="1">
-        <v>87805.5181</v>
+        <v>6206.4953</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1511</v>
+        <v>103033.9615</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>77805.5181</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8655</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3189.081</v>
       </c>
-      <c r="O11" s="1">
-        <v>13093.0217</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113093.0217</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0641</v>
+        <v>0.0796</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.8769</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5795.3209</v>
       </c>
       <c r="F12" s="1">
         <v>389.9447</v>
       </c>
       <c r="G12" s="1">
-        <v>6185.2656</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103065.1452</v>
       </c>
       <c r="I12" s="1">
-        <v>94776.5208</v>
+        <v>13017.4143</v>
       </c>
       <c r="J12" s="1">
-        <v>15.323</v>
+        <v>116082.5595</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>84776.5208</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.6284</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6971.0027</v>
       </c>
-      <c r="O12" s="1">
-        <v>16122.0191</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126122.0191</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.8772</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6185.2656</v>
       </c>
       <c r="F13" s="1">
         <v>562.183</v>
       </c>
       <c r="G13" s="1">
-        <v>6747.4486</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110001.8556</v>
       </c>
       <c r="I13" s="1">
-        <v>104826.7796</v>
+        <v>16046.4116</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5358</v>
+        <v>126048.2672</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94826.77959999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.3311</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10050.2588</v>
       </c>
-      <c r="O13" s="1">
-        <v>16071.7603</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136071.7603</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.1874</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6747.4486</v>
       </c>
       <c r="F14" s="1">
         <v>-6747.4486</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122082.2626</v>
       </c>
       <c r="I14" s="1">
-        <v>104826.7796</v>
+        <v>15996.1528</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5358</v>
+        <v>138078.4154</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94826.77959999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.0537</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122082.2626</v>
       </c>
-      <c r="O14" s="1">
-        <v>138154.0229</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138154.0229</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0542</v>
+        <v>0.0149</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.2218</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.9525</v>
       </c>
       <c r="G2" s="1">
-        <v>656.9525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1664</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2218</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1664</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.0702</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>656.9525</v>
       </c>
       <c r="F3" s="1">
         <v>710.722</v>
       </c>
       <c r="G3" s="1">
-        <v>1367.6745</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19143.75</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6234</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2218</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19143.75</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0403</v>
+        <v>-0.0804</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.8476</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1367.6745</v>
       </c>
       <c r="F4" s="1">
         <v>722.1468</v>
       </c>
       <c r="G4" s="1">
-        <v>2089.8213</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28788.96</v>
+        <v>18840.8101</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3553</v>
+        <v>18840.8101</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6234</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28788.96</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0122</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.6185</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2089.8213</v>
       </c>
       <c r="F5" s="1">
         <v>681.3973999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2771.2186</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30391.6439</v>
       </c>
       <c r="I5" s="1">
-        <v>39961.0073</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.42</v>
+        <v>30391.6439</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29961.0073</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.3366</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9961.007299999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>38.9927</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40339.994</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.04</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.2363</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2771.2186</v>
       </c>
       <c r="F6" s="1">
         <v>560.6747</v>
       </c>
       <c r="G6" s="1">
-        <v>3331.8933</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42004.1922</v>
       </c>
       <c r="I6" s="1">
-        <v>48503.6146</v>
+        <v>38.9927</v>
       </c>
       <c r="J6" s="1">
-        <v>14.5574</v>
+        <v>42043.185</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38503.6146</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8941</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8542.6073</v>
       </c>
-      <c r="O6" s="1">
-        <v>1496.3854</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51998.8917</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.033</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.9097</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3331.8933</v>
       </c>
       <c r="F7" s="1">
         <v>506.7528</v>
       </c>
       <c r="G7" s="1">
-        <v>3838.6461</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52734.5416</v>
       </c>
       <c r="I7" s="1">
-        <v>56565.8989</v>
+        <v>1496.3854</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7359</v>
+        <v>54230.927</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46565.8989</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9758</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8062.2843</v>
       </c>
-      <c r="O7" s="1">
-        <v>3434.1011</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64189.1199</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0353</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.3909</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3838.6461</v>
       </c>
       <c r="F8" s="1">
         <v>802.3526000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4640.9986</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>58773.8936</v>
       </c>
       <c r="I8" s="1">
-        <v>68914.827</v>
+        <v>3434.1011</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8491</v>
+        <v>62207.9946</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58914.827</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.3478</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12348.9281</v>
       </c>
-      <c r="O8" s="1">
-        <v>1085.173</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72143.9669</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0276</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.1095</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4640.9986</v>
       </c>
       <c r="F9" s="1">
         <v>439.1267</v>
       </c>
       <c r="G9" s="1">
-        <v>5080.1253</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74376.64380000001</v>
       </c>
       <c r="I9" s="1">
-        <v>75988.9381</v>
+        <v>1085.173</v>
       </c>
       <c r="J9" s="1">
-        <v>14.9581</v>
+        <v>75461.8168</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65988.9381</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.2187</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7074.1111</v>
       </c>
-      <c r="O9" s="1">
-        <v>4011.0619</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85425.14969999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0399</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.1222</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5080.1253</v>
       </c>
       <c r="F10" s="1">
         <v>644.8855</v>
       </c>
       <c r="G10" s="1">
-        <v>5725.0108</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>81478.0974</v>
       </c>
       <c r="I10" s="1">
-        <v>86385.9114</v>
+        <v>4011.0619</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0892</v>
+        <v>85489.1593</v>
       </c>
       <c r="K10" s="1">
+        <v>76385.9114</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15.0362</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.2</v>
       </c>
-      <c r="L10" s="1">
-        <v>914.4226</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-9482.5507</v>
+        <v>835.3798</v>
       </c>
       <c r="O10" s="1">
-        <v>4528.5112</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96349.6694</v>
+        <v>-9561.593500000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0097</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.3453</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5725.0108</v>
       </c>
       <c r="F11" s="1">
         <v>202.4587</v>
       </c>
       <c r="G11" s="1">
-        <v>5927.4695</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>98786.7789</v>
       </c>
       <c r="I11" s="1">
-        <v>89897.61780000001</v>
+        <v>4449.4684</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1663</v>
+        <v>103236.2473</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>79897.61780000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9559</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3511.7064</v>
       </c>
-      <c r="O11" s="1">
-        <v>11016.8047</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113297.0688</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0653</v>
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.8769</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5927.4695</v>
       </c>
       <c r="F12" s="1">
         <v>414.7706</v>
       </c>
       <c r="G12" s="1">
-        <v>6342.24</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105415.3027</v>
       </c>
       <c r="I12" s="1">
-        <v>97312.4298</v>
+        <v>10937.7619</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3435</v>
+        <v>116353.0646</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87312.4298</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.7301</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7414.8119</v>
       </c>
-      <c r="O12" s="1">
-        <v>13601.9928</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126393.6582</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0251</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.8772</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6342.24</v>
       </c>
       <c r="F13" s="1">
         <v>593.8911000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6936.1311</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>112793.5681</v>
       </c>
       <c r="I13" s="1">
-        <v>107929.5391</v>
+        <v>13522.95</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5605</v>
+        <v>126316.5181</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>97929.53909999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.4408</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10617.1094</v>
       </c>
-      <c r="O13" s="1">
-        <v>12984.8834</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136340.5072</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.1874</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6936.1311</v>
       </c>
       <c r="F14" s="1">
         <v>-6936.1311</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125496.1138</v>
       </c>
       <c r="I14" s="1">
-        <v>107929.5391</v>
+        <v>12905.8406</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5605</v>
+        <v>138401.9544</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>97929.53909999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1188</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125496.1138</v>
       </c>
-      <c r="O14" s="1">
-        <v>138480.9972</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138480.9972</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0537</v>
+        <v>0.0153</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.2218</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.9525</v>
       </c>
       <c r="G2" s="1">
-        <v>656.9525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1664</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2218</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1664</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.0702</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>656.9525</v>
       </c>
       <c r="F3" s="1">
         <v>710.722</v>
       </c>
       <c r="G3" s="1">
-        <v>1367.6745</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19143.75</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6234</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2218</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19143.75</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0403</v>
+        <v>-0.0804</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.8476</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1367.6745</v>
       </c>
       <c r="F4" s="1">
         <v>722.1468</v>
       </c>
       <c r="G4" s="1">
-        <v>2089.8213</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28788.96</v>
+        <v>18840.8101</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3553</v>
+        <v>18840.8101</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6234</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28788.96</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0122</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.6185</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2089.8213</v>
       </c>
       <c r="F5" s="1">
         <v>684.0647</v>
       </c>
       <c r="G5" s="1">
-        <v>2773.886</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40339.7918</v>
+        <v>30391.6439</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4202</v>
+        <v>30391.6439</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.3553</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40339.7918</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.04</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.2363</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2773.886</v>
       </c>
       <c r="F6" s="1">
         <v>591.4924</v>
       </c>
       <c r="G6" s="1">
-        <v>3365.3784</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42044.6221</v>
       </c>
       <c r="I6" s="1">
-        <v>49012.1559</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.5636</v>
+        <v>42044.6221</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39012.1559</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.0641</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9012.1559</v>
       </c>
-      <c r="O6" s="1">
-        <v>987.8441</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51997.8942</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0329</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.9097</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3365.3784</v>
       </c>
       <c r="F7" s="1">
         <v>521.6105</v>
       </c>
       <c r="G7" s="1">
-        <v>3886.9889</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53264.5171</v>
       </c>
       <c r="I7" s="1">
-        <v>57310.8222</v>
+        <v>987.8441</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7443</v>
+        <v>54252.3612</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47310.8222</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.0581</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8298.6664</v>
       </c>
-      <c r="O7" s="1">
-        <v>2689.1778</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64209.3284</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0357</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.3909</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3886.9889</v>
       </c>
       <c r="F8" s="1">
         <v>824.322</v>
       </c>
       <c r="G8" s="1">
-        <v>4711.3109</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>59514.0756</v>
       </c>
       <c r="I8" s="1">
-        <v>69997.8796</v>
+        <v>2689.1778</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8574</v>
+        <v>62203.2534</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59997.8796</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4356</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12687.0574</v>
       </c>
-      <c r="O8" s="1">
-        <v>2.1204</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72137.4725</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0279</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.1095</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4711.3109</v>
       </c>
       <c r="F9" s="1">
         <v>458.8317</v>
       </c>
       <c r="G9" s="1">
-        <v>5170.1426</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>75503.46829999999</v>
       </c>
       <c r="I9" s="1">
-        <v>77389.42939999999</v>
+        <v>2.1204</v>
       </c>
       <c r="J9" s="1">
-        <v>14.9685</v>
+        <v>75505.5886</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67389.42939999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.3038</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7391.5498</v>
       </c>
-      <c r="O9" s="1">
-        <v>2610.5706</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85467.27619999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0405</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.1222</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5170.1426</v>
       </c>
       <c r="F10" s="1">
         <v>671.0949000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5841.2376</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>82921.84940000001</v>
       </c>
       <c r="I10" s="1">
-        <v>88208.9562</v>
+        <v>2610.5706</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1011</v>
+        <v>85532.42</v>
       </c>
       <c r="K10" s="1">
+        <v>78208.9562</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15.127</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.2</v>
       </c>
-      <c r="L10" s="1">
-        <v>930.6257000000001</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-9888.901099999999</v>
+        <v>848.0359999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>2721.6694</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96406.9421</v>
+        <v>-9971.4908</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0098</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.3453</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5841.2376</v>
       </c>
       <c r="F11" s="1">
         <v>221.9503</v>
       </c>
       <c r="G11" s="1">
-        <v>6063.1879</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>100792.3064</v>
       </c>
       <c r="I11" s="1">
-        <v>92058.75079999999</v>
+        <v>2639.0797</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1832</v>
+        <v>103431.3861</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82058.75079999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.0482</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3849.7945</v>
       </c>
-      <c r="O11" s="1">
-        <v>8871.874900000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113494.0003</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.06660000000000001</v>
+        <v>0.0827</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.8769</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6063.1879</v>
       </c>
       <c r="F12" s="1">
         <v>440.8071</v>
       </c>
       <c r="G12" s="1">
-        <v>6503.9949</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107828.9455</v>
       </c>
       <c r="I12" s="1">
-        <v>99939.0148</v>
+        <v>8789.2852</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3658</v>
+        <v>116618.2307</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89939.0148</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.8336</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7880.264</v>
       </c>
-      <c r="O12" s="1">
-        <v>10991.6109</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126659.9576</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0256</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.8772</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6503.9949</v>
       </c>
       <c r="F13" s="1">
         <v>627.2165</v>
       </c>
       <c r="G13" s="1">
-        <v>7131.2115</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>115670.2979</v>
       </c>
       <c r="I13" s="1">
-        <v>111151.89</v>
+        <v>10909.0212</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5867</v>
+        <v>126579.3191</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101151.89</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.5523</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11212.8752</v>
       </c>
-      <c r="O13" s="1">
-        <v>9778.735699999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136603.7658</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.1874</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7131.2115</v>
       </c>
       <c r="F14" s="1">
         <v>-7131.2115</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129025.722</v>
       </c>
       <c r="I14" s="1">
-        <v>111151.89</v>
+        <v>9696.146000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5867</v>
+        <v>138721.8679</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101151.89</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1844</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>129025.722</v>
       </c>
-      <c r="O14" s="1">
-        <v>138804.4577</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138804.4577</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0532</v>
+        <v>0.0157</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.2218</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.9525</v>
       </c>
       <c r="G2" s="1">
-        <v>656.9525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1664</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2218</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1664</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.0702</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>656.9525</v>
       </c>
       <c r="F3" s="1">
         <v>710.722</v>
       </c>
       <c r="G3" s="1">
-        <v>1367.6745</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19143.75</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6234</v>
+        <v>9195.561600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2218</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19143.75</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0403</v>
+        <v>-0.0804</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.8476</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1367.6745</v>
       </c>
       <c r="F4" s="1">
         <v>722.1468</v>
       </c>
       <c r="G4" s="1">
-        <v>2089.8213</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28788.96</v>
+        <v>18840.8101</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.3553</v>
+        <v>18840.8101</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6234</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28788.96</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0122</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.6185</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2089.8213</v>
       </c>
       <c r="F5" s="1">
         <v>684.0647</v>
       </c>
       <c r="G5" s="1">
-        <v>2773.886</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40339.7918</v>
+        <v>30391.6439</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4202</v>
+        <v>30391.6439</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.3553</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40339.7918</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.04</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.2363</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2773.886</v>
       </c>
       <c r="F6" s="1">
         <v>625.3124</v>
       </c>
       <c r="G6" s="1">
-        <v>3399.1984</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42044.6221</v>
       </c>
       <c r="I6" s="1">
-        <v>49527.4468</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.5703</v>
+        <v>42044.6221</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39527.4468</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.2498</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9527.4468</v>
       </c>
-      <c r="O6" s="1">
-        <v>472.5532</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51995.2224</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0329</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.9097</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3399.1984</v>
       </c>
       <c r="F7" s="1">
         <v>536.7795</v>
       </c>
       <c r="G7" s="1">
-        <v>3935.9779</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53799.7922</v>
       </c>
       <c r="I7" s="1">
-        <v>58067.4482</v>
+        <v>472.5532</v>
       </c>
       <c r="J7" s="1">
-        <v>14.753</v>
+        <v>54272.3454</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48067.4482</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.1408</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8540.001399999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1932.5518</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64228.0611</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.036</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.3909</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3935.9779</v>
       </c>
       <c r="F8" s="1">
         <v>775.2992</v>
       </c>
       <c r="G8" s="1">
-        <v>4711.2771</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72134.83409999999</v>
+        <v>60264.1511</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1932.5518</v>
       </c>
       <c r="J8" s="1">
-        <v>14.858</v>
+        <v>62196.7029</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.244</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11932.5518</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72134.83409999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0282</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.1095</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4711.2771</v>
       </c>
       <c r="F9" s="1">
         <v>550.6967</v>
       </c>
       <c r="G9" s="1">
-        <v>5261.9737</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75502.92600000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78871.4482</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.9889</v>
+        <v>75502.92600000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68871.4482</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.6184</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8871.448200000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>1128.5518</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85456.9428</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0404</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.1222</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5261.9737</v>
       </c>
       <c r="F10" s="1">
         <v>690.2626</v>
       </c>
       <c r="G10" s="1">
-        <v>5952.2363</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95465.53780000001</v>
+        <v>84394.69190000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1128.5518</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1204</v>
+        <v>85523.24370000001</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15.2034</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.2</v>
       </c>
-      <c r="L10" s="1">
-        <v>947.1553</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-10181.3965</v>
+        <v>848.0299</v>
       </c>
       <c r="O10" s="1">
-        <v>947.1553</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96412.693</v>
+        <v>-10280.5219</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.01</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.3453</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5952.2363</v>
       </c>
       <c r="F11" s="1">
         <v>250.3343</v>
       </c>
       <c r="G11" s="1">
-        <v>6202.5706</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>102707.6237</v>
       </c>
       <c r="I11" s="1">
-        <v>94342.1231</v>
+        <v>848.0299</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2102</v>
+        <v>103555.6536</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84342.1231</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.1698</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4342.1231</v>
       </c>
-      <c r="O11" s="1">
-        <v>6605.0322</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113632.2489</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0678</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.8769</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6202.5706</v>
       </c>
       <c r="F12" s="1">
         <v>468.1048</v>
       </c>
       <c r="G12" s="1">
-        <v>6670.6754</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>110307.7563</v>
       </c>
       <c r="I12" s="1">
-        <v>102710.385</v>
+        <v>6505.9068</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3973</v>
+        <v>116813.6631</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92710.38499999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.9471</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8368.262000000001</v>
       </c>
-      <c r="O12" s="1">
-        <v>8236.7703</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126869.3952</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0262</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.8772</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6670.6754</v>
       </c>
       <c r="F13" s="1">
         <v>662.2333</v>
       </c>
       <c r="G13" s="1">
-        <v>7332.9087</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>118634.6261</v>
       </c>
       <c r="I13" s="1">
-        <v>114549.2622</v>
+        <v>8137.6448</v>
       </c>
       <c r="J13" s="1">
-        <v>15.6213</v>
+        <v>126772.271</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104549.2622</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.673</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11838.8772</v>
       </c>
-      <c r="O13" s="1">
-        <v>6397.8931</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136810.0074</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>18.1874</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7332.9087</v>
       </c>
       <c r="F14" s="1">
         <v>-7332.9087</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132675.0499</v>
       </c>
       <c r="I14" s="1">
-        <v>114549.2622</v>
+        <v>6298.7676</v>
       </c>
       <c r="J14" s="1">
-        <v>15.6213</v>
+        <v>138973.8176</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104549.2622</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2575</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>132675.0499</v>
       </c>
-      <c r="O14" s="1">
-        <v>139072.943</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139072.943</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0527</v>
+        <v>0.0161</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.1384</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.711</v>
+        <v>14.4095</v>
       </c>
       <c r="D3" s="1">
-        <v>15.5358</v>
+        <v>14.0537</v>
       </c>
       <c r="E3" s="1">
-        <v>15.5605</v>
+        <v>14.1188</v>
       </c>
       <c r="F3" s="1">
-        <v>15.5867</v>
+        <v>14.1844</v>
       </c>
       <c r="G3" s="1">
-        <v>15.6213</v>
+        <v>14.2575</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1894</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1211</v>
+        <v>0.1824</v>
       </c>
       <c r="D4" s="3">
-        <v>0.111</v>
+        <v>0.172</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1142</v>
+        <v>0.1753</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1172</v>
+        <v>0.1785</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1195</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1416</v>
       </c>
       <c r="C5" s="3">
-        <v>0.123</v>
+        <v>0.1482</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1211</v>
+        <v>0.1444</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1219</v>
+        <v>0.1455</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1226</v>
+        <v>0.1466</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1231</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.1937</v>
       </c>
       <c r="C6" s="4">
-        <v>0.8192</v>
+        <v>1.0934</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7488</v>
+        <v>1.0501</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7701</v>
+        <v>1.0651</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7901</v>
+        <v>1.0787</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8058</v>
+        <v>1.0878</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3104</v>
+        <v>0.1381</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3172</v>
+        <v>0.3157</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3172</v>
+        <v>0.3156</v>
       </c>
       <c r="F7" s="3">
-        <v>0.317</v>
+        <v>0.3154</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3162</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>959.2645</v>
+        <v>847.5291</v>
       </c>
       <c r="D8" s="1">
-        <v>898.5399</v>
+        <v>822.9324</v>
       </c>
       <c r="E8" s="1">
-        <v>914.4226</v>
+        <v>835.3798</v>
       </c>
       <c r="F8" s="1">
-        <v>930.6257000000001</v>
+        <v>848.0359999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>947.1553</v>
+        <v>848.0299</v>
       </c>
     </row>
   </sheetData>
